--- a/biology/Zoologie/Capitosauria/Capitosauria.xlsx
+++ b/biology/Zoologie/Capitosauria/Capitosauria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les capitosauriens (Capitosauria) forment un clade éteint de grands amphibiens temnospondyles avec des vertèbres stéréospondyles simplifiées.
-Principalement vivant comme piscivores dans les lacs et rivières, les Capitosauria et leur taxon jumeau Trematosauria (en) étaient les seuls labyrinthodontes importants qui existaient pendant le Mésozoïque dans des niches écologiques largement semblables à celles des crocodiliens modernes, et certains ont grandi à de très grandes tailles. À 6 mètres de long, le Mastodonsaurus giganteus du Trias moyen n'est pas seulement considéré comme le plus grand capitosaure, mais peut-être aussi le plus grand amphibien à avoir vécu[1]. Les restes connus les plus récents du groupe datent du Rhétien d'Allemagne et sont référés à Cyclotosaurus[2].
-Capitosauria fut d'abord nommé par Rainer R. Schoch (d) et Andrew R. Milner (d) (2000) et décrit par Yates et Warren (2000), qui lui assignèrent Lydekkerina et Mastodonsauroidea[3],[4]. Il a été décrit par Damiani (2001) sous le nom Mastodonsauroidea[5]. Dans leur analyse phylogénétique des temnospondyles, Ruta et al. (2007) ont placé Lydekkerina et ses parents dans le clade Rhytidostea, tout en plaçant seulement des taxons Mastodonsauroidea à l'intérieur des Capitosauria[6].
+Principalement vivant comme piscivores dans les lacs et rivières, les Capitosauria et leur taxon jumeau Trematosauria (en) étaient les seuls labyrinthodontes importants qui existaient pendant le Mésozoïque dans des niches écologiques largement semblables à celles des crocodiliens modernes, et certains ont grandi à de très grandes tailles. À 6 mètres de long, le Mastodonsaurus giganteus du Trias moyen n'est pas seulement considéré comme le plus grand capitosaure, mais peut-être aussi le plus grand amphibien à avoir vécu. Les restes connus les plus récents du groupe datent du Rhétien d'Allemagne et sont référés à Cyclotosaurus.
+Capitosauria fut d'abord nommé par Rainer R. Schoch (d) et Andrew R. Milner (d) (2000) et décrit par Yates et Warren (2000), qui lui assignèrent Lydekkerina et Mastodonsauroidea,. Il a été décrit par Damiani (2001) sous le nom Mastodonsauroidea. Dans leur analyse phylogénétique des temnospondyles, Ruta et al. (2007) ont placé Lydekkerina et ses parents dans le clade Rhytidostea, tout en plaçant seulement des taxons Mastodonsauroidea à l'intérieur des Capitosauria.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ci-dessous, un cladogramme de Fortuny et al. (2011) montrant les relations phylogénétiques des capitosauriens[7] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ci-dessous, un cladogramme de Fortuny et al. (2011) montrant les relations phylogénétiques des capitosauriens :
 </t>
         </is>
       </c>
